--- a/Person/黄斯媛/软件工程.xlsx
+++ b/Person/黄斯媛/软件工程.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siyuannnnn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8005A0E-9175-4989-9570-74CA470B8F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48047761-CE29-4CCB-B611-19E53B2137B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00D7D726-20D6-4461-8237-53B75E01DD10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>引用编号</t>
   </si>
@@ -201,6 +203,75 @@
   </si>
   <si>
     <t>作为登陆者，我希望能够通过我的动态去增加或者删除或者查看有关于我的动态的信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT VISION</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>Name :</t>
+  </si>
+  <si>
+    <t>Vision:</t>
+  </si>
+  <si>
+    <t>analysis of profit</t>
+  </si>
+  <si>
+    <t>User Model</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>User DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>SEVERITY</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>吾宠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打造人与宠物直接增加亲密度的平台，还可以增加宠物的生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物主人可以报名参加宠物活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有宠物的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有一个或多个宠物的爱宠人士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将要有宠物的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢宠物并且将要养宠物的人士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢宠物的人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢宠物，但是没有养宠物和要养宠物的打算的人士。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -215,7 +286,7 @@
     <numFmt numFmtId="179" formatCode="0.00;\-0.00;;@\ "/>
     <numFmt numFmtId="180" formatCode="0;\-0;;@\ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,8 +355,64 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +461,31 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -552,6 +702,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -575,7 +862,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -661,6 +948,96 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="22" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="26" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="25" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="24" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="10" borderId="16" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -987,8 +1364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1269FB09-752F-4AD5-BD08-AAEDBA4EC7A6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1017,7 +1394,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="72.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="73" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1676,4 +2053,309 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B8369-E70C-43ED-B8FC-095FB4C1AD27}">
+  <dimension ref="A2:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="48.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="44"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
+      <c r="B6" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EC23C8-8FED-4DB9-BB16-3A289AEB9AD4}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="65.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+    </row>
+    <row r="7" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+    </row>
+    <row r="9" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="67"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="67"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="67"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="67"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="67"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>